--- a/pipeline/preprocessing.xlsx
+++ b/pipeline/preprocessing.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
   <si>
     <t>0.1% yeast</t>
   </si>
@@ -66,15 +66,6 @@
     <t>no map</t>
   </si>
   <si>
-    <t>both map</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Quality control</t>
-  </si>
-  <si>
     <t>Black list</t>
   </si>
   <si>
@@ -94,6 +85,9 @@
   </si>
   <si>
     <t>without blacklist</t>
+  </si>
+  <si>
+    <t>QC</t>
   </si>
 </sst>
 </file>
@@ -211,7 +205,7 @@
                   <c:v>Input</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Quality control</c:v>
+                  <c:v>QC</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Black list</c:v>
@@ -266,7 +260,7 @@
                   <c:v>Input</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Quality control</c:v>
+                  <c:v>QC</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Black list</c:v>
@@ -315,11 +309,11 @@
         </c:dLbls>
         <c:gapWidth val="55"/>
         <c:overlap val="100"/>
-        <c:axId val="66667264"/>
-        <c:axId val="66668800"/>
+        <c:axId val="112879104"/>
+        <c:axId val="112880640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="66667264"/>
+        <c:axId val="112879104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -328,7 +322,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66668800"/>
+        <c:crossAx val="112880640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -336,7 +330,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66668800"/>
+        <c:axId val="112880640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -347,7 +341,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66667264"/>
+        <c:crossAx val="112879104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -430,7 +424,7 @@
                   <c:v>Input</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Quality control</c:v>
+                  <c:v>QC</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Black list</c:v>
@@ -485,7 +479,7 @@
                   <c:v>Input</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Quality control</c:v>
+                  <c:v>QC</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Black list</c:v>
@@ -534,11 +528,11 @@
         </c:dLbls>
         <c:gapWidth val="55"/>
         <c:overlap val="100"/>
-        <c:axId val="67180032"/>
-        <c:axId val="67223936"/>
+        <c:axId val="114892800"/>
+        <c:axId val="114894336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="67180032"/>
+        <c:axId val="114892800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -547,7 +541,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67223936"/>
+        <c:crossAx val="114894336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -555,7 +549,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67223936"/>
+        <c:axId val="114894336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -566,7 +560,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67180032"/>
+        <c:crossAx val="114892800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -592,16 +586,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>227700</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>100425</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -622,16 +616,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>427725</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>109950</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -943,7 +937,7 @@
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -956,7 +950,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -964,7 +958,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="I1" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
@@ -977,37 +971,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
         <v>10</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L2" t="s">
         <v>1</v>
       </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -1360,7 +1354,7 @@
         <v>21392181</v>
       </c>
       <c r="N15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -1455,38 +1449,6 @@
         <v>1168291</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22">
-        <f>I14-B14</f>
-        <v>17627</v>
-      </c>
-      <c r="E22">
-        <f>L14-E14</f>
-        <v>14408</v>
-      </c>
-      <c r="I22">
-        <f>I14-I15-I17-I20</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B23">
-        <f>B5-B7</f>
-        <v>21310</v>
-      </c>
-      <c r="E23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B24">
-        <f>B23-B22</f>
-        <v>3683</v>
-      </c>
-    </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I25" s="1"/>
     </row>
@@ -1495,31 +1457,31 @@
         <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E28" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F28" t="s">
         <v>7</v>
       </c>
       <c r="G28" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I28" t="s">
         <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K28" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="L28" t="s">
         <v>7</v>
       </c>
       <c r="M28" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
